--- a/tabular/eve/parvovirinae/epv-unc-parvo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-unc-parvo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241F7BAF-5690-EA4A-A825-B38E0FDA86C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3C66C1-E625-D04F-A2D9-E184D31740FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="27240" windowHeight="16440" xr2:uid="{07BFB4BC-E7A0-7B45-ADF2-DAEBF83B8A1A}"/>
   </bookViews>
@@ -661,12 +661,13 @@
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="M5" sqref="A1:AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" customWidth="1"/>
     <col min="23" max="23" width="23.33203125" customWidth="1"/>
     <col min="24" max="24" width="27.6640625" customWidth="1"/>
     <col min="26" max="26" width="22.83203125" customWidth="1"/>

--- a/tabular/eve/parvovirinae/epv-unc-parvo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-unc-parvo-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3C66C1-E625-D04F-A2D9-E184D31740FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2CB844-8E3F-4845-93CC-BB77C2315446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="27240" windowHeight="16440" xr2:uid="{07BFB4BC-E7A0-7B45-ADF2-DAEBF83B8A1A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="60">
   <si>
     <t>dependo.500-eHV.carlito</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Parvovirinae</t>
   </si>
   <si>
-    <t>dependo.500-eHV.mustela</t>
-  </si>
-  <si>
     <t>sequenceID</t>
   </si>
   <si>
@@ -204,6 +201,18 @@
   </si>
   <si>
     <t>Scyliorhinus</t>
+  </si>
+  <si>
+    <t>parvovirinae.20-laurasiatheria</t>
+  </si>
+  <si>
+    <t>parvovirinae.22-laurasiatheria</t>
+  </si>
+  <si>
+    <t>parvovirinae.7-bradypus</t>
+  </si>
+  <si>
+    <t>parvovirinae.94-HHV6</t>
   </si>
 </sst>
 </file>
@@ -658,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE95499-4C66-8048-98A0-32040C378277}">
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="A1:AA8"/>
+      <selection activeCell="H1" sqref="A1:AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -675,90 +684,90 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -833,48 +842,48 @@
         <v>10</v>
       </c>
       <c r="Z2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>500</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="5">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H3" s="5">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>3</v>
+      <c r="J3" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>3</v>
+      <c r="L3" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>5</v>
@@ -888,14 +897,14 @@
       <c r="P3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>9</v>
+      <c r="Q3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="T3" s="12" t="s">
         <v>5</v>
@@ -907,45 +916,45 @@
         <v>9</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Z3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="5">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="H4" s="5">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>1</v>
@@ -971,78 +980,78 @@
       <c r="P4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="16" t="s">
-        <v>46</v>
+      <c r="Q4" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="12" t="s">
-        <v>5</v>
+      <c r="U4" s="12">
+        <v>62</v>
       </c>
       <c r="V4" s="12" t="s">
         <v>9</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Z4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="5">
-        <v>73</v>
-      </c>
-      <c r="H5" s="5">
-        <v>76</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="7" t="s">
+      <c r="K5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="17" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="8" t="s">
@@ -1058,59 +1067,59 @@
         <v>8</v>
       </c>
       <c r="R5" s="16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="T5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="U5" s="12">
-        <v>62</v>
+      <c r="U5" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="V5" s="12" t="s">
         <v>9</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Z5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA5" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -1119,13 +1128,13 @@
       <c r="J6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="17" t="s">
+      <c r="K6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="N6" s="8" t="s">
@@ -1141,10 +1150,10 @@
         <v>8</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>5</v>
@@ -1156,19 +1165,19 @@
         <v>9</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Z6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA6" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
@@ -1179,10 +1188,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>55</v>
@@ -1224,10 +1233,10 @@
         <v>8</v>
       </c>
       <c r="R7" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S7" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>5</v>
@@ -1248,93 +1257,10 @@
         <v>10</v>
       </c>
       <c r="Z7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA7" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="U8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="V8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/eve/parvovirinae/epv-unc-parvo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-unc-parvo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2CB844-8E3F-4845-93CC-BB77C2315446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3C6C52-29CD-7447-8A22-817F5A57411F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="27240" windowHeight="16440" xr2:uid="{07BFB4BC-E7A0-7B45-ADF2-DAEBF83B8A1A}"/>
   </bookViews>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="60">
   <si>
-    <t>dependo.500-eHV.carlito</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t>parvovirinae.94-HHV6</t>
+  </si>
+  <si>
+    <t>X59532</t>
   </si>
 </sst>
 </file>
@@ -670,7 +670,7 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:AA7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -684,105 +684,105 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
         <v>500</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="G2" s="5">
         <v>1</v>
@@ -791,81 +791,81 @@
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="P2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="Z2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
         <v>20</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" s="5">
         <v>13</v>
@@ -874,81 +874,81 @@
         <v>13</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="O3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="8" t="s">
+      <c r="P3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>7</v>
-      </c>
       <c r="Q3" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="Z3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
         <v>22</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" s="5">
         <v>73</v>
@@ -957,81 +957,81 @@
         <v>76</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="O4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="8" t="s">
+      <c r="P4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="9" t="s">
+      <c r="Q4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="10" t="s">
-        <v>8</v>
-      </c>
       <c r="R4" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U4" s="12">
         <v>62</v>
       </c>
       <c r="V4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="Z4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -1040,81 +1040,81 @@
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="O5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="8" t="s">
+      <c r="P5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="P5" s="9" t="s">
+      <c r="Q5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="R5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="V5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="S5" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="U5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="V5" s="12" t="s">
+      <c r="W5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="Z5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA5" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
@@ -1123,81 +1123,81 @@
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="O6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="8" t="s">
+      <c r="P6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="P6" s="9" t="s">
+      <c r="Q6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="R6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="V6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="S6" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="V6" s="12" t="s">
+      <c r="W6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="Z6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA6" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="5">
         <v>1</v>
@@ -1206,61 +1206,61 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="O7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="8" t="s">
+      <c r="P7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7" s="9" t="s">
+      <c r="Q7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="R7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="V7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R7" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="U7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="V7" s="12" t="s">
+      <c r="W7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/eve/parvovirinae/epv-unc-parvo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-unc-parvo-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3C6C52-29CD-7447-8A22-817F5A57411F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B0E5AC-F69B-FB48-BAD9-46837E1464E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="27240" windowHeight="16440" xr2:uid="{07BFB4BC-E7A0-7B45-ADF2-DAEBF83B8A1A}"/>
   </bookViews>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE95499-4C66-8048-98A0-32040C378277}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/parvovirinae/epv-unc-parvo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-unc-parvo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B0E5AC-F69B-FB48-BAD9-46837E1464E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D05A75-55BD-9544-9E03-803E77FC8668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="27240" windowHeight="16440" xr2:uid="{07BFB4BC-E7A0-7B45-ADF2-DAEBF83B8A1A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="63">
   <si>
     <t>yes</t>
   </si>
@@ -213,6 +213,15 @@
   </si>
   <si>
     <t>X59532</t>
+  </si>
+  <si>
+    <t>ncbi-refseqs-unc-parvo-epv</t>
+  </si>
+  <si>
+    <t>parvovirinae.2-tetraodon</t>
+  </si>
+  <si>
+    <t>parvovirinae.1-scyliorhinus</t>
   </si>
 </sst>
 </file>
@@ -669,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE95499-4C66-8048-98A0-32040C378277}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="A1:AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -766,20 +775,20 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>59</v>
+      <c r="A2" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>500</v>
-      </c>
-      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
+      <c r="D2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>3</v>
@@ -790,17 +799,17 @@
       <c r="H2" s="5">
         <v>1</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>2</v>
+      <c r="J2" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>2</v>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>4</v>
@@ -817,11 +826,11 @@
       <c r="Q2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>8</v>
+      <c r="R2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="T2" s="12" t="s">
         <v>4</v>
@@ -833,10 +842,10 @@
         <v>8</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>9</v>
@@ -850,30 +859,30 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H3" s="5">
-        <v>13</v>
-      </c>
-      <c r="I3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="7" t="s">
@@ -897,14 +906,14 @@
       <c r="P3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="16" t="s">
-        <v>44</v>
+      <c r="Q3" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="T3" s="12" t="s">
         <v>4</v>
@@ -916,10 +925,10 @@
         <v>8</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>9</v>
@@ -933,42 +942,42 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="5">
-        <v>73</v>
-      </c>
-      <c r="H4" s="5">
-        <v>76</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="7" t="s">
+      <c r="K4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="17" t="s">
         <v>4</v>
       </c>
       <c r="N4" s="8" t="s">
@@ -984,25 +993,25 @@
         <v>7</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="12">
-        <v>62</v>
+      <c r="U4" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="V4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>9</v>
@@ -1016,42 +1025,42 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="G5" s="5">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5">
+        <v>13</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="17" t="s">
+      <c r="K5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="N5" s="8" t="s">
@@ -1063,14 +1072,14 @@
       <c r="P5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="10" t="s">
-        <v>7</v>
+      <c r="Q5" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="R5" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="T5" s="12" t="s">
         <v>4</v>
@@ -1082,10 +1091,10 @@
         <v>8</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>9</v>
@@ -1099,30 +1108,30 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="5">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="H6" s="5">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
@@ -1150,25 +1159,25 @@
         <v>7</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="U6" s="12" t="s">
-        <v>4</v>
+      <c r="U6" s="12">
+        <v>62</v>
       </c>
       <c r="V6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>9</v>
@@ -1181,20 +1190,20 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
+      <c r="A7" t="s">
+        <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="2">
+        <v>94</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>3</v>
@@ -1205,17 +1214,17 @@
       <c r="H7" s="5">
         <v>1</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>4</v>
+      <c r="J7" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>4</v>
+      <c r="L7" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>4</v>
@@ -1232,11 +1241,11 @@
       <c r="Q7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>46</v>
+      <c r="R7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>4</v>
@@ -1248,22 +1257,25 @@
         <v>8</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AA7" s="1" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA7">
+    <sortCondition ref="C2:C7"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tabular/eve/parvovirinae/epv-unc-parvo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-unc-parvo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D05A75-55BD-9544-9E03-803E77FC8668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6380ADC2-C0E8-8244-8E6A-BF54CE6EBD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="27240" windowHeight="16440" xr2:uid="{07BFB4BC-E7A0-7B45-ADF2-DAEBF83B8A1A}"/>
   </bookViews>
@@ -678,7 +678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE95499-4C66-8048-98A0-32040C378277}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="I6" sqref="A1:AA7"/>
     </sheetView>
   </sheetViews>
